--- a/Modelisation/Suivi Projet GestionBrb.xlsx
+++ b/Modelisation/Suivi Projet GestionBrb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3FED3D-3AA7-44C2-AA29-EDEFAE65E546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DEE6E6-2065-45E5-88DC-4D2BFB44CB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +549,7 @@
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,15 +655,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -712,6 +709,21 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1006,8 +1018,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1046,15 +1058,15 @@
       <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="39"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="36"/>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="37"/>
+      <c r="Q2" s="60"/>
       <c r="R2" s="35"/>
       <c r="S2" s="10"/>
       <c r="U2" s="6"/>
@@ -1099,17 +1111,17 @@
       <c r="Q3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="44"/>
+      <c r="S3" s="41"/>
     </row>
     <row r="4" spans="1:21" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="11"/>
@@ -1117,14 +1129,14 @@
         <v>10</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="44" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="54">
         <v>1</v>
       </c>
       <c r="K4" s="12"/>
@@ -1145,17 +1157,17 @@
       <c r="Q4" s="13">
         <v>43748</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="39">
         <f>DAYS360(P4,Q4)</f>
         <v>2</v>
       </c>
-      <c r="S4" s="44"/>
+      <c r="S4" s="41"/>
     </row>
     <row r="5" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="11"/>
@@ -1163,14 +1175,14 @@
         <v>10</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="45" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="54">
         <v>1</v>
       </c>
       <c r="K5" s="12"/>
@@ -1191,7 +1203,7 @@
       <c r="Q5" s="13">
         <v>43755</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="39">
         <f>DAYS360(P5,Q5)</f>
         <v>5</v>
       </c>
@@ -1202,7 +1214,7 @@
       <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
@@ -1210,14 +1222,14 @@
         <v>10</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="55">
         <v>1</v>
       </c>
       <c r="K6" s="16"/>
@@ -1238,7 +1250,7 @@
       <c r="Q6" s="13">
         <v>43755</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="40">
         <f t="shared" ref="R6:R9" si="0">DAYS360(P6,Q6)</f>
         <v>5</v>
       </c>
@@ -1249,7 +1261,7 @@
       <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="14"/>
@@ -1257,14 +1269,14 @@
         <v>10</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="48" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="55">
         <v>1</v>
       </c>
       <c r="K7" s="16"/>
@@ -1285,7 +1297,7 @@
       <c r="Q7" s="13">
         <v>43755</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1296,7 +1308,7 @@
       <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="14"/>
@@ -1304,14 +1316,14 @@
         <v>10</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="49" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="55">
         <v>1</v>
       </c>
       <c r="K8" s="16"/>
@@ -1332,7 +1344,7 @@
       <c r="Q8" s="13">
         <v>43755</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1343,7 +1355,7 @@
       <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14"/>
@@ -1351,14 +1363,14 @@
         <v>10</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="55">
         <v>1</v>
       </c>
       <c r="K9" s="16"/>
@@ -1379,7 +1391,7 @@
       <c r="Q9" s="17">
         <v>43757</v>
       </c>
-      <c r="R9" s="43">
+      <c r="R9" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1390,23 +1402,23 @@
       <c r="B10" s="14">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>2</v>
+      <c r="C10" s="56" t="s">
+        <v>3</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="15">
-        <v>0</v>
+      <c r="J10" s="57">
+        <v>0.1</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="17">
@@ -1420,9 +1432,11 @@
         <v>2</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="17"/>
+      <c r="P10" s="17">
+        <v>43760</v>
+      </c>
       <c r="Q10" s="17"/>
-      <c r="R10" s="43"/>
+      <c r="R10" s="40"/>
       <c r="S10" s="10"/>
       <c r="U10" s="6"/>
     </row>
@@ -1438,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="14"/>
@@ -1462,7 +1476,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="43"/>
+      <c r="R11" s="40"/>
       <c r="S11" s="10"/>
       <c r="U11" s="6"/>
     </row>
@@ -1478,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="14"/>
@@ -1496,13 +1510,13 @@
         <v>43765</v>
       </c>
       <c r="N12" s="26">
-        <f t="shared" ref="N12:N14" si="2">DAYS360(L12,M12)</f>
+        <f t="shared" ref="N12:N13" si="2">DAYS360(L12,M12)</f>
         <v>2</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="43"/>
+      <c r="R12" s="40"/>
       <c r="S12" s="10"/>
       <c r="U12" s="6"/>
     </row>
@@ -1518,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="49" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="14"/>
@@ -1542,8 +1556,8 @@
       <c r="O13" s="10"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="45"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="42"/>
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1558,7 +1572,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="14"/>
@@ -1576,14 +1590,14 @@
         <v>43761</v>
       </c>
       <c r="N14" s="26">
-        <f>DAYS360(L14,M14)</f>
+        <f t="shared" ref="N14:N42" si="3">DAYS360(L14,M14)</f>
         <v>1</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="46"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="43"/>
       <c r="U14" s="6"/>
     </row>
     <row r="15" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,7 +1612,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="48" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="14"/>
@@ -1616,14 +1630,14 @@
         <v>43762</v>
       </c>
       <c r="N15" s="26">
-        <f>DAYS360(L15,M15)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="46"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="43"/>
       <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1638,7 +1652,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="48" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="14"/>
@@ -1656,14 +1670,14 @@
         <v>43762</v>
       </c>
       <c r="N16" s="26">
-        <f>DAYS360(L16,M16)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="46"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="43"/>
       <c r="U16" s="6"/>
     </row>
     <row r="17" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1678,7 +1692,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="14"/>
@@ -1696,14 +1710,14 @@
         <v>43763</v>
       </c>
       <c r="N17" s="26">
-        <f>DAYS360(L17,M17)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="46"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="43"/>
       <c r="U17" s="6"/>
     </row>
     <row r="18" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1718,7 +1732,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="48" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="14"/>
@@ -1736,14 +1750,14 @@
         <v>43765</v>
       </c>
       <c r="N18" s="26">
-        <f>DAYS360(L18,M18)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="46"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="43"/>
       <c r="U18" s="6"/>
     </row>
     <row r="19" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1758,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="49" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="14"/>
@@ -1776,14 +1790,14 @@
         <v>43766</v>
       </c>
       <c r="N19" s="26">
-        <f>DAYS360(L19,M19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="46"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="43"/>
       <c r="U19" s="6"/>
     </row>
     <row r="20" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1798,7 +1812,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="14"/>
@@ -1816,14 +1830,14 @@
         <v>43768</v>
       </c>
       <c r="N20" s="26">
-        <f>DAYS360(L20,M20)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="46"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="43"/>
       <c r="U20" s="6"/>
     </row>
     <row r="21" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1838,7 +1852,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="48" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="14"/>
@@ -1856,14 +1870,14 @@
         <v>43768</v>
       </c>
       <c r="N21" s="26">
-        <f>DAYS360(L21,M21)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="46"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="43"/>
       <c r="U21" s="6"/>
     </row>
     <row r="22" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1878,7 +1892,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="14"/>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="14"/>
@@ -1896,14 +1910,14 @@
         <v>43771</v>
       </c>
       <c r="N22" s="26">
-        <f>DAYS360(L22,M22)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="46"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="43"/>
       <c r="U22" s="6"/>
     </row>
     <row r="23" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1918,7 +1932,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="49" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="14"/>
@@ -1936,14 +1950,14 @@
         <v>43770</v>
       </c>
       <c r="N23" s="26">
-        <f>DAYS360(L23,M23)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="46"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="43"/>
       <c r="U23" s="6"/>
     </row>
     <row r="24" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1958,7 +1972,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="14"/>
@@ -1976,14 +1990,14 @@
         <v>43774</v>
       </c>
       <c r="N24" s="26">
-        <f>DAYS360(L24,M24)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="46"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="43"/>
       <c r="U24" s="6"/>
     </row>
     <row r="25" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1998,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="49" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="14"/>
@@ -2016,14 +2030,14 @@
         <v>43772</v>
       </c>
       <c r="N25" s="26">
-        <f>DAYS360(L25,M25)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="46"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="43"/>
       <c r="U25" s="6"/>
     </row>
     <row r="26" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2038,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="14"/>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="14"/>
@@ -2056,14 +2070,14 @@
         <v>43779</v>
       </c>
       <c r="N26" s="26">
-        <f>DAYS360(L26,M26)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="46"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="43"/>
       <c r="U26" s="6"/>
     </row>
     <row r="27" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2078,7 +2092,7 @@
         <v>56</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H27" s="14"/>
@@ -2096,14 +2110,14 @@
         <v>43776</v>
       </c>
       <c r="N27" s="26">
-        <f>DAYS360(L27,M27)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O27" s="10"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="46"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="43"/>
       <c r="U27" s="6"/>
     </row>
     <row r="28" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2118,7 +2132,7 @@
         <v>56</v>
       </c>
       <c r="F28" s="14"/>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="48" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="14"/>
@@ -2136,14 +2150,14 @@
         <v>43779</v>
       </c>
       <c r="N28" s="26">
-        <f>DAYS360(L28,M28)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="46"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="43"/>
       <c r="U28" s="6"/>
     </row>
     <row r="29" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2158,7 +2172,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="14"/>
@@ -2176,14 +2190,14 @@
         <v>43779</v>
       </c>
       <c r="N29" s="26">
-        <f>DAYS360(L29,M29)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="46"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="43"/>
       <c r="U29" s="6"/>
     </row>
     <row r="30" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2198,7 +2212,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="14"/>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="14"/>
@@ -2216,14 +2230,14 @@
         <v>43779</v>
       </c>
       <c r="N30" s="26">
-        <f>DAYS360(L30,M30)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="46"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="43"/>
       <c r="U30" s="6"/>
     </row>
     <row r="31" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2238,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="14"/>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="14"/>
@@ -2256,14 +2270,14 @@
         <v>43781</v>
       </c>
       <c r="N31" s="26">
-        <f>DAYS360(L31,M31)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O31" s="10"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="46"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="43"/>
       <c r="U31" s="6"/>
     </row>
     <row r="32" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2294,14 +2308,14 @@
         <v>43781</v>
       </c>
       <c r="N32" s="26">
-        <f>DAYS360(L32,M32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O32" s="10"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="46"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="43"/>
       <c r="U32" s="6"/>
     </row>
     <row r="33" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2332,14 +2346,14 @@
         <v>43781</v>
       </c>
       <c r="N33" s="26">
-        <f>DAYS360(L33,M33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O33" s="10"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="46"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="43"/>
       <c r="U33" s="6"/>
     </row>
     <row r="34" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2370,14 +2384,14 @@
         <v>43781</v>
       </c>
       <c r="N34" s="26">
-        <f>DAYS360(L34,M34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="46"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="43"/>
       <c r="U34" s="6"/>
     </row>
     <row r="35" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2408,14 +2422,14 @@
         <v>43781</v>
       </c>
       <c r="N35" s="26">
-        <f>DAYS360(L35,M35)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="46"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="43"/>
       <c r="U35" s="6"/>
     </row>
     <row r="36" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2446,14 +2460,14 @@
         <v>43781</v>
       </c>
       <c r="N36" s="26">
-        <f>DAYS360(L36,M36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="17"/>
       <c r="Q36" s="17"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="46"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="43"/>
       <c r="U36" s="6"/>
     </row>
     <row r="37" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2484,14 +2498,14 @@
         <v>43781</v>
       </c>
       <c r="N37" s="26">
-        <f>DAYS360(L37,M37)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O37" s="10"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="46"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="43"/>
       <c r="U37" s="6"/>
     </row>
     <row r="38" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2522,14 +2536,14 @@
         <v>43781</v>
       </c>
       <c r="N38" s="26">
-        <f>DAYS360(L38,M38)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="46"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="43"/>
       <c r="U38" s="6"/>
     </row>
     <row r="39" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2560,14 +2574,14 @@
         <v>43781</v>
       </c>
       <c r="N39" s="26">
-        <f>DAYS360(L39,M39)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="46"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="43"/>
       <c r="U39" s="6"/>
     </row>
     <row r="40" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2598,13 +2612,13 @@
         <v>43781</v>
       </c>
       <c r="N40" s="26">
-        <f>DAYS360(L40,M40)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
-      <c r="R40" s="43"/>
+      <c r="R40" s="40"/>
       <c r="S40" s="10"/>
       <c r="U40" s="6"/>
     </row>
@@ -2636,13 +2650,13 @@
         <v>43781</v>
       </c>
       <c r="N41" s="26">
-        <f>DAYS360(L41,M41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
-      <c r="R41" s="43"/>
+      <c r="R41" s="40"/>
       <c r="S41" s="10"/>
       <c r="U41" s="6"/>
     </row>
@@ -2674,13 +2688,13 @@
         <v>43781</v>
       </c>
       <c r="N42" s="26">
-        <f>DAYS360(L42,M42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
-      <c r="R42" s="43"/>
+      <c r="R42" s="40"/>
       <c r="S42" s="10"/>
       <c r="U42" s="6"/>
     </row>
@@ -2844,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="40"/>
-      <c r="G11" s="40" t="s">
+      <c r="E11" s="37"/>
+      <c r="G11" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="3:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="40"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="3"/>
       <c r="G12" s="24" t="s">
         <v>16</v>

--- a/Modelisation/Suivi Projet GestionBrb.xlsx
+++ b/Modelisation/Suivi Projet GestionBrb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DEE6E6-2065-45E5-88DC-4D2BFB44CB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437D498-092A-4FEC-A696-ADE223DE623A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1418,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="57">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="17">
